--- a/biology/Botanique/Bâton/Bâton.xlsx
+++ b/biology/Botanique/Bâton/Bâton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A2ton</t>
+          <t>Bâton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bâton est un objet dur de mêmes proportions mais généralement plus gros qu’une baguette. Un bâton peut être fait de divers matériaux (bois, fibre de verre, aluminium).
 Plus généralement, le mot « bâton » évoque tout objet de forme fine, rectiligne et allongée.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A2ton</t>
+          <t>Bâton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux noms d'objets contiennent le mot bâton ; ces objets peuvent avoir des usages variés :
 Le bâton peut être un outil de soutien, pour le voyageur, le pèlerin, le berger ou le pasteur ; il peut être placé comme repère.
@@ -521,69 +535,283 @@
 Le bâton peut être une arme, en général improvisée et non létale ; cependant le Jō-jutsu ou le Bō-jutsu japonais sont des arts martiaux fondés sur l'usage d'un bâton, le Jo pour sa version moyenne et le Bo pour sa version longue.
 La bastonnade (volée de coups de bâton) peut être utilisée comme châtiment corporel.
 Le bâton peut également servir pour jouer avec son chien.
-Jeu
-Les bâtons sont une enseigne (couleur) dans les jeux de cartes italiens, espagnols et certains jeux de tarots comme le tarot de Marseille.
-Jonglerie
-Le bâton (ou « staff » en anglais) est un accessoire de jonglerie. Le jongleur peut utiliser un ou deux bâtons. Dans le deuxième cas, il utilisera des bâtons de taille réduite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bâton</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A2ton</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Utilité</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Jeu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bâtons sont une enseigne (couleur) dans les jeux de cartes italiens, espagnols et certains jeux de tarots comme le tarot de Marseille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bâton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A2ton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jeu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Jonglerie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bâton (ou « staff » en anglais) est un accessoire de jonglerie. Le jongleur peut utiliser un ou deux bâtons. Dans le deuxième cas, il utilisera des bâtons de taille réduite.
 Un bâton peut être constitué d’un long tube d’aluminium (entre 80 cm et 1,60 m) au milieu duquel on pose un grip pour le confort et l’exécution de certaines techniques. S’il doit être enflammé on parle de bâton de feu, on fixe aux extrémités des mèches généralement en kevlar qu’on imbibera de kerdane.
 Les techniques en staff sont assez variées et différentes selon que l’on utilise un ou deux bâtons. On note trois grandes familles :
 les rotations qui s’apparentent aux techniques des bollas ;
 le contact, où l’on fait passer le bâton sur une partie de son corps ;
 les lancers.
 Il existe un autre instrument de jonglerie appelé le « bâton du diable », manipulé avec deux baguettes.
-Symbole
-Le bâton est un symbole[1] de simplicité, de dépouillement, de défense, d’autorité, de victoire (trophée), de pouvoir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bâton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A2ton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Symbole</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le bâton est un symbole de simplicité, de dépouillement, de défense, d’autorité, de victoire (trophée), de pouvoir.
 En Asie, les dragons sont apprivoisés au moyen d’un bâton et en Chine les forces du mal étaient chassées avec un bâton.
 Le bâton est un balai chez les sorcières. Il canalise l’énergie pour un exorcisme (dans la Bible, libération de Moïse, et dans la naissance des sources). Le bâton de Moïse est un puissant symbole.
 Le bâton d'Asclépios (ou signe du caducée), associé désormais à la médecine et à la pharmacie.
 Le bâton d’évêque est appelé crosse épiscopale.
 En France du bâton porté traditionnellement lors de cérémonies par le représentant de la confrérie de Saint-Nicolas, l'un des saints patrons des juristes. 
-Chez les avocats de culture francophone, le bâton renvoie à celui porté par le bâtonnier (représentant élu des avocats inscrits à son barreau), orné de l'effigie d'un des saints patrons des juristes (Saint Nicolas) ou Saint Yves). Ainsi, lors de l'élection d'un nouveau bâtonnier, ce bâton cérémoniel est transmis au cours de la cérémonie de "passation de bâtonnier"[2].
+Chez les avocats de culture francophone, le bâton renvoie à celui porté par le bâtonnier (représentant élu des avocats inscrits à son barreau), orné de l'effigie d'un des saints patrons des juristes (Saint Nicolas) ou Saint Yves). Ainsi, lors de l'élection d'un nouveau bâtonnier, ce bâton cérémoniel est transmis au cours de la cérémonie de "passation de bâtonnier".
 Autres symboles :
 Bâton cantoral (religion)
 Bâton de parole (société)
 Bâton de maréchal
-Daṇḍa
-Outil
-Le bâton du chef d'orchestre dont on se servait à l’époque baroque pour battre la mesure en la frappant au sol est remplacé de nos jours par une baguette. Jean-Baptiste Lully est mort d’une gangrène qui a suivi la blessure occasionnée par son bâton de direction (une grande canne) avec laquelle il s’était violemment frappé le pied.
-Arme
-Du XIIe au XVe siècle, le mot bâton désigne toute arme offensive autre que l’épée. La lance, la masse d'armes, la hache, la vouge sont souvent appelées bâtons[3].
+Daṇḍa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bâton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A2ton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Outil</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bâton du chef d'orchestre dont on se servait à l’époque baroque pour battre la mesure en la frappant au sol est remplacé de nos jours par une baguette. Jean-Baptiste Lully est mort d’une gangrène qui a suivi la blessure occasionnée par son bâton de direction (une grande canne) avec laquelle il s’était violemment frappé le pied.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bâton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A2ton</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Du XIIe au XVe siècle, le mot bâton désigne toute arme offensive autre que l’épée. La lance, la masse d'armes, la hache, la vouge sont souvent appelées bâtons.
 Bâton de combat
 Bâton à feu, nom donné au fusil à poudre noire
 Le bâton dans les arts martiaux Chinois
-Le bâton dans le Silambam, un art martial traditionnel indien (du Tamil Nadu)
-Forme
-Une barre chocolatée inventé en Belgique par la chocolaterie Jacques qui dépose le brevet en 1936 est désignée par l'expression  « bâton de chocolat » ; cette confiserie de forme allongée est divisée en plusieurs morceaux facilement détachables pour une dégustation à la main plus aisée.
+Le bâton dans le Silambam, un art martial traditionnel indien (du Tamil Nadu)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bâton</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A2ton</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Forme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une barre chocolatée inventé en Belgique par la chocolaterie Jacques qui dépose le brevet en 1936 est désignée par l'expression  « bâton de chocolat » ; cette confiserie de forme allongée est divisée en plusieurs morceaux facilement détachables pour une dégustation à la main plus aisée.
 Une salaison industrielle a pris le nom de « bâton de berger ».
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B%C3%A2ton</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bâton</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%A2ton</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Expressions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Discussion à bâtons rompus : discussion sans fil particulier
 Passer le bâton de la parole : après s’être senti compris, donner à une autre personne la possibilité de s’exprimer
